--- a/UR_nais_einheiten_unique_v2_mf.xlsx
+++ b/UR_nais_einheiten_unique_v2_mf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C34750-CFAE-4D68-B128-3A6595C505F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62DBC4-807D-4FC8-A0D8-71357E7F5F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5520" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="517">
   <si>
     <t>Kategorie_</t>
   </si>
@@ -1454,18 +1454,6 @@
     <t>Bedingung Höhenstufe</t>
   </si>
   <si>
-    <t>NAIS1
-2025</t>
-  </si>
-  <si>
-    <t>NaiS2
-2025</t>
-  </si>
-  <si>
-    <t>tahs
-2025</t>
-  </si>
-  <si>
     <t>Bemerkungen</t>
   </si>
   <si>
@@ -1575,6 +1563,18 @@
   </si>
   <si>
     <t>keine Zuordnung möglich</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nais1</t>
+  </si>
+  <si>
+    <t>nais2</t>
+  </si>
+  <si>
+    <t>hs</t>
   </si>
 </sst>
 </file>
@@ -1968,18 +1968,24 @@
   <dimension ref="A1:K283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="6"/>
-    <col min="8" max="9" width="8.88671875" style="7"/>
-    <col min="10" max="10" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="7"/>
+    <col min="10" max="10" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>513</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,25 +1999,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>475</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="K1" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="K1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -2031,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5740</v>
       </c>
@@ -2051,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5864</v>
       </c>
@@ -2074,10 +2080,10 @@
         <v>201</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5521</v>
       </c>
@@ -2097,10 +2103,10 @@
         <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5734</v>
       </c>
@@ -2120,10 +2126,10 @@
         <v>68</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5496</v>
       </c>
@@ -2140,10 +2146,10 @@
         <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>227</v>
       </c>
@@ -2163,10 +2169,10 @@
         <v>15</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5498</v>
       </c>
@@ -2186,10 +2192,10 @@
         <v>14</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>330</v>
       </c>
@@ -2212,10 +2218,10 @@
         <v>11</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6348</v>
       </c>
@@ -2232,10 +2238,10 @@
         <v>25</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>311</v>
       </c>
@@ -2252,10 +2258,10 @@
         <v>25</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2275,10 +2281,10 @@
         <v>25</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5592</v>
       </c>
@@ -2298,10 +2304,10 @@
         <v>40</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6360</v>
       </c>
@@ -2321,10 +2327,10 @@
         <v>40</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6385</v>
       </c>
@@ -2344,10 +2350,10 @@
         <v>18</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6392</v>
       </c>
@@ -2367,10 +2373,10 @@
         <v>25</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>132</v>
       </c>
@@ -2393,10 +2399,10 @@
         <v>85</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>272</v>
       </c>
@@ -2416,10 +2422,10 @@
         <v>36</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -2439,10 +2445,10 @@
         <v>40</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5530</v>
       </c>
@@ -2459,10 +2465,10 @@
         <v>40</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5648</v>
       </c>
@@ -2482,10 +2488,10 @@
         <v>14</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5768</v>
       </c>
@@ -2505,10 +2511,10 @@
         <v>18</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6399</v>
       </c>
@@ -2528,10 +2534,10 @@
         <v>22</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5507</v>
       </c>
@@ -2551,10 +2557,10 @@
         <v>25</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5749</v>
       </c>
@@ -2574,10 +2580,10 @@
         <v>144</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5581</v>
       </c>
@@ -2597,10 +2603,10 @@
         <v>25</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6515</v>
       </c>
@@ -2620,10 +2626,10 @@
         <v>201</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5495</v>
       </c>
@@ -2640,13 +2646,13 @@
         <v>40</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5758</v>
       </c>
@@ -2663,10 +2669,10 @@
         <v>40</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -2686,10 +2692,10 @@
         <v>40</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -2709,10 +2715,10 @@
         <v>14</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5723</v>
       </c>
@@ -2729,10 +2735,10 @@
         <v>14</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5719</v>
       </c>
@@ -2752,10 +2758,10 @@
         <v>65</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5499</v>
       </c>
@@ -2775,10 +2781,10 @@
         <v>68</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5535</v>
       </c>
@@ -2795,10 +2801,10 @@
         <v>15</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -2818,10 +2824,10 @@
         <v>15</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>6409</v>
       </c>
@@ -2841,10 +2847,10 @@
         <v>18</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6295</v>
       </c>
@@ -2864,10 +2870,10 @@
         <v>22</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>6285</v>
       </c>
@@ -2884,10 +2890,10 @@
         <v>15</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6247</v>
       </c>
@@ -2907,10 +2913,10 @@
         <v>16</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>357</v>
       </c>
@@ -2933,10 +2939,10 @@
         <v>16</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>5517</v>
       </c>
@@ -2953,10 +2959,10 @@
         <v>16</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>7</v>
       </c>
@@ -2976,10 +2982,10 @@
         <v>16</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>21</v>
       </c>
@@ -2999,10 +3005,10 @@
         <v>17</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>75</v>
       </c>
@@ -3022,10 +3028,10 @@
         <v>18</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>5419</v>
       </c>
@@ -3042,10 +3048,10 @@
         <v>18</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>5550</v>
       </c>
@@ -3065,10 +3071,10 @@
         <v>15</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>71</v>
       </c>
@@ -3088,10 +3094,10 @@
         <v>85</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>6229</v>
       </c>
@@ -3108,10 +3114,10 @@
         <v>85</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5493</v>
       </c>
@@ -3128,10 +3134,10 @@
         <v>85</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>3586</v>
       </c>
@@ -3154,10 +3160,10 @@
         <v>51</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>6416</v>
       </c>
@@ -3174,10 +3180,10 @@
         <v>93</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>68</v>
       </c>
@@ -3197,10 +3203,10 @@
         <v>93</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>5536</v>
       </c>
@@ -3217,10 +3223,10 @@
         <v>93</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>6417</v>
       </c>
@@ -3237,10 +3243,10 @@
         <v>19</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>5424</v>
       </c>
@@ -3257,10 +3263,10 @@
         <v>19</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>81</v>
       </c>
@@ -3280,10 +3286,10 @@
         <v>19</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>5449</v>
       </c>
@@ -3303,10 +3309,10 @@
         <v>1</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>5548</v>
       </c>
@@ -3326,10 +3332,10 @@
         <v>15</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>6359</v>
       </c>
@@ -3349,10 +3355,10 @@
         <v>18</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>6208</v>
       </c>
@@ -3372,10 +3378,10 @@
         <v>46</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>5795</v>
       </c>
@@ -3395,10 +3401,10 @@
         <v>68</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>155</v>
       </c>
@@ -3418,10 +3424,10 @@
         <v>108</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>6183</v>
       </c>
@@ -3438,10 +3444,10 @@
         <v>20</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>141</v>
       </c>
@@ -3461,10 +3467,10 @@
         <v>20</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>6197</v>
       </c>
@@ -3484,10 +3490,10 @@
         <v>21</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>6194</v>
       </c>
@@ -3507,10 +3513,10 @@
         <v>201</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>130</v>
       </c>
@@ -3530,10 +3536,10 @@
         <v>20</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>412</v>
       </c>
@@ -3553,10 +3559,10 @@
         <v>21</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>5753</v>
       </c>
@@ -3573,10 +3579,10 @@
         <v>22</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>64</v>
       </c>
@@ -3596,10 +3602,10 @@
         <v>22</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>6420</v>
       </c>
@@ -3619,10 +3625,10 @@
         <v>40</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>307</v>
       </c>
@@ -3642,10 +3648,10 @@
         <v>126</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>6432</v>
       </c>
@@ -3665,10 +3671,10 @@
         <v>24</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>185</v>
       </c>
@@ -3688,10 +3694,10 @@
         <v>24</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>5454</v>
       </c>
@@ -3708,10 +3714,10 @@
         <v>24</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1767</v>
       </c>
@@ -3731,10 +3737,10 @@
         <v>132</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>6192</v>
       </c>
@@ -3754,10 +3760,10 @@
         <v>236</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>800</v>
       </c>
@@ -3777,10 +3783,10 @@
         <v>25</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>5502</v>
       </c>
@@ -3800,10 +3806,10 @@
         <v>236</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>215</v>
       </c>
@@ -3823,10 +3829,10 @@
         <v>144</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>6427</v>
       </c>
@@ -3846,10 +3852,10 @@
         <v>145</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>195</v>
       </c>
@@ -3869,10 +3875,10 @@
         <v>145</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>5569</v>
       </c>
@@ -3889,10 +3895,10 @@
         <v>145</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>5754</v>
       </c>
@@ -3912,10 +3918,10 @@
         <v>22</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>5137</v>
       </c>
@@ -3932,10 +3938,10 @@
         <v>145</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>5146</v>
       </c>
@@ -3952,10 +3958,10 @@
         <v>145</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>5156</v>
       </c>
@@ -3969,13 +3975,13 @@
         <v>145</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>5147</v>
       </c>
@@ -3989,10 +3995,10 @@
         <v>145</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>5145</v>
       </c>
@@ -4009,10 +4015,10 @@
         <v>145</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>3527</v>
       </c>
@@ -4035,10 +4041,10 @@
         <v>201</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>5458</v>
       </c>
@@ -4058,10 +4064,10 @@
         <v>201</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>5503</v>
       </c>
@@ -4081,10 +4087,10 @@
         <v>201</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>6235</v>
       </c>
@@ -4104,10 +4110,10 @@
         <v>65</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>692</v>
       </c>
@@ -4127,10 +4133,10 @@
         <v>25</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>5436</v>
       </c>
@@ -4147,10 +4153,10 @@
         <v>25</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>5524</v>
       </c>
@@ -4170,10 +4176,10 @@
         <v>40</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>5585</v>
       </c>
@@ -4193,10 +4199,10 @@
         <v>18</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>6152</v>
       </c>
@@ -4216,10 +4222,10 @@
         <v>20</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>6010</v>
       </c>
@@ -4239,10 +4245,10 @@
         <v>22</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>5874</v>
       </c>
@@ -4262,10 +4268,10 @@
         <v>26</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>5855</v>
       </c>
@@ -4285,10 +4291,10 @@
         <v>201</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>5500</v>
       </c>
@@ -4308,10 +4314,10 @@
         <v>236</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>5435</v>
       </c>
@@ -4331,10 +4337,10 @@
         <v>236</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>5869</v>
       </c>
@@ -4354,10 +4360,10 @@
         <v>6</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>6172</v>
       </c>
@@ -4374,13 +4380,13 @@
         <v>25</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>5846</v>
       </c>
@@ -4397,10 +4403,10 @@
         <v>25</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>212</v>
       </c>
@@ -4420,10 +4426,10 @@
         <v>26</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>6288</v>
       </c>
@@ -4440,10 +4446,10 @@
         <v>26</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>5143</v>
       </c>
@@ -4460,10 +4466,10 @@
         <v>26</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>6167</v>
       </c>
@@ -4483,10 +4489,10 @@
         <v>25</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>6078</v>
       </c>
@@ -4503,13 +4509,13 @@
         <v>26</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>5914</v>
       </c>
@@ -4526,10 +4532,10 @@
         <v>26</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1955</v>
       </c>
@@ -4549,10 +4555,10 @@
         <v>180</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>472</v>
       </c>
@@ -4569,13 +4575,13 @@
         <v>183</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>5461</v>
       </c>
@@ -4589,13 +4595,13 @@
         <v>186</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>6434</v>
       </c>
@@ -4612,16 +4618,16 @@
         <v>187</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>187</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>6077</v>
       </c>
@@ -4635,16 +4641,16 @@
         <v>189</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>187</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>5430</v>
       </c>
@@ -4658,13 +4664,13 @@
         <v>192</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>5877</v>
       </c>
@@ -4681,10 +4687,10 @@
         <v>30</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>5165</v>
       </c>
@@ -4701,10 +4707,10 @@
         <v>196</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>861</v>
       </c>
@@ -4724,10 +4730,10 @@
         <v>198</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>3492</v>
       </c>
@@ -4747,10 +4753,10 @@
         <v>201</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>5528</v>
       </c>
@@ -4767,10 +4773,10 @@
         <v>201</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>5796</v>
       </c>
@@ -4790,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>5774</v>
       </c>
@@ -4810,10 +4816,10 @@
         <v>201</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>4364</v>
       </c>
@@ -4833,10 +4839,10 @@
         <v>201</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>5650</v>
       </c>
@@ -4856,10 +4862,10 @@
         <v>217</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>5649</v>
       </c>
@@ -4876,13 +4882,13 @@
         <v>201</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>6006</v>
       </c>
@@ -4899,10 +4905,10 @@
         <v>201</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>191</v>
       </c>
@@ -4922,10 +4928,10 @@
         <v>214</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2265</v>
       </c>
@@ -4945,10 +4951,10 @@
         <v>217</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>5927</v>
       </c>
@@ -4965,10 +4971,10 @@
         <v>217</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>5820</v>
       </c>
@@ -4988,10 +4994,10 @@
         <v>144</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>6149</v>
       </c>
@@ -5011,10 +5017,10 @@
         <v>201</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>6031</v>
       </c>
@@ -5034,10 +5040,10 @@
         <v>201</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>5985</v>
       </c>
@@ -5057,10 +5063,10 @@
         <v>68</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>3538</v>
       </c>
@@ -5080,10 +5086,10 @@
         <v>46</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>6209</v>
       </c>
@@ -5100,10 +5106,10 @@
         <v>46</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>3437</v>
       </c>
@@ -5123,10 +5129,10 @@
         <v>227</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>5392</v>
       </c>
@@ -5143,10 +5149,10 @@
         <v>227</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>6472</v>
       </c>
@@ -5166,10 +5172,10 @@
         <v>47</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>164</v>
       </c>
@@ -5189,10 +5195,10 @@
         <v>47</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>5337</v>
       </c>
@@ -5209,10 +5215,10 @@
         <v>47</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1386</v>
       </c>
@@ -5232,10 +5238,10 @@
         <v>236</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>5266</v>
       </c>
@@ -5252,10 +5258,10 @@
         <v>236</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>6446</v>
       </c>
@@ -5275,10 +5281,10 @@
         <v>236</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>5422</v>
       </c>
@@ -5295,10 +5301,10 @@
         <v>236</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>5538</v>
       </c>
@@ -5318,10 +5324,10 @@
         <v>18</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>6306</v>
       </c>
@@ -5341,10 +5347,10 @@
         <v>24</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>5542</v>
       </c>
@@ -5364,10 +5370,10 @@
         <v>25</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>6326</v>
       </c>
@@ -5387,10 +5393,10 @@
         <v>201</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>5539</v>
       </c>
@@ -5410,10 +5416,10 @@
         <v>48</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>698</v>
       </c>
@@ -5436,10 +5442,10 @@
         <v>68</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>6091</v>
       </c>
@@ -5459,10 +5465,10 @@
         <v>68</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>5440</v>
       </c>
@@ -5482,10 +5488,10 @@
         <v>1</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>266</v>
       </c>
@@ -5505,10 +5511,10 @@
         <v>48</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>5457</v>
       </c>
@@ -5525,10 +5531,10 @@
         <v>48</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>5573</v>
       </c>
@@ -5548,10 +5554,10 @@
         <v>25</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>5810</v>
       </c>
@@ -5568,13 +5574,13 @@
         <v>48</v>
       </c>
       <c r="I161" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>5761</v>
       </c>
@@ -5591,10 +5597,10 @@
         <v>48</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1116</v>
       </c>
@@ -5611,16 +5617,16 @@
         <v>258</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1116</v>
       </c>
@@ -5637,16 +5643,16 @@
         <v>258</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>6477</v>
       </c>
@@ -5666,10 +5672,10 @@
         <v>50</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>719</v>
       </c>
@@ -5689,10 +5695,10 @@
         <v>50</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>5264</v>
       </c>
@@ -5712,10 +5718,10 @@
         <v>50</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>721</v>
       </c>
@@ -5735,13 +5741,13 @@
         <v>50</v>
       </c>
       <c r="I168" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>3670</v>
       </c>
@@ -5761,10 +5767,10 @@
         <v>51</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>891</v>
       </c>
@@ -5784,10 +5790,10 @@
         <v>52</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>574</v>
       </c>
@@ -5804,16 +5810,16 @@
         <v>276</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>574</v>
       </c>
@@ -5830,16 +5836,16 @@
         <v>276</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H172" s="7">
         <v>53</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>6236</v>
       </c>
@@ -5853,16 +5859,16 @@
         <v>278</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>6236</v>
       </c>
@@ -5876,16 +5882,16 @@
         <v>278</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H174" s="7">
         <v>53</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>3354</v>
       </c>
@@ -5911,10 +5917,10 @@
         <v>227</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>3354</v>
       </c>
@@ -5931,16 +5937,16 @@
         <v>279</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H176" s="7">
         <v>55</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>116</v>
       </c>
@@ -5963,10 +5969,10 @@
         <v>227</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>116</v>
       </c>
@@ -5983,16 +5989,16 @@
         <v>285</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H178" s="7" t="s">
         <v>285</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>5942</v>
       </c>
@@ -6012,10 +6018,10 @@
         <v>227</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>5942</v>
       </c>
@@ -6029,16 +6035,16 @@
         <v>281</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H180" s="7" t="s">
         <v>285</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>5903</v>
       </c>
@@ -6055,10 +6061,10 @@
         <v>56</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>3356</v>
       </c>
@@ -6078,10 +6084,10 @@
         <v>56</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>3026</v>
       </c>
@@ -6101,10 +6107,10 @@
         <v>293</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1626</v>
       </c>
@@ -6127,10 +6133,10 @@
         <v>337</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>5269</v>
       </c>
@@ -6150,10 +6156,10 @@
         <v>298</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>3545</v>
       </c>
@@ -6173,10 +6179,10 @@
         <v>298</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>5289</v>
       </c>
@@ -6196,10 +6202,10 @@
         <v>293</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2986</v>
       </c>
@@ -6219,10 +6225,10 @@
         <v>293</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1071</v>
       </c>
@@ -6242,10 +6248,10 @@
         <v>305</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2987</v>
       </c>
@@ -6265,10 +6271,10 @@
         <v>308</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>5283</v>
       </c>
@@ -6288,10 +6294,10 @@
         <v>308</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>3464</v>
       </c>
@@ -6311,10 +6317,10 @@
         <v>312</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>3098</v>
       </c>
@@ -6334,10 +6340,10 @@
         <v>312</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>187</v>
       </c>
@@ -6357,10 +6363,10 @@
         <v>318</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>5426</v>
       </c>
@@ -6377,10 +6383,10 @@
         <v>6</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2036</v>
       </c>
@@ -6400,10 +6406,10 @@
         <v>318</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>5865</v>
       </c>
@@ -6423,10 +6429,10 @@
         <v>201</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>6811</v>
       </c>
@@ -6446,10 +6452,10 @@
         <v>61</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>5612</v>
       </c>
@@ -6469,10 +6475,10 @@
         <v>68</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>6455</v>
       </c>
@@ -6492,10 +6498,10 @@
         <v>328</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1648</v>
       </c>
@@ -6515,10 +6521,10 @@
         <v>328</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1705</v>
       </c>
@@ -6535,16 +6541,16 @@
         <v>332</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1705</v>
       </c>
@@ -6561,16 +6567,16 @@
         <v>332</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>332</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>6488</v>
       </c>
@@ -6587,16 +6593,16 @@
         <v>332</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>6488</v>
       </c>
@@ -6613,16 +6619,16 @@
         <v>332</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>332</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>8600</v>
       </c>
@@ -6642,10 +6648,10 @@
         <v>337</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>107</v>
       </c>
@@ -6665,10 +6671,10 @@
         <v>340</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>5706</v>
       </c>
@@ -6685,10 +6691,10 @@
         <v>340</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>145</v>
       </c>
@@ -6708,10 +6714,10 @@
         <v>61</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>5737</v>
       </c>
@@ -6728,10 +6734,10 @@
         <v>61</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>4034</v>
       </c>
@@ -6751,10 +6757,10 @@
         <v>61</v>
       </c>
       <c r="J211" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>6227</v>
       </c>
@@ -6774,10 +6780,10 @@
         <v>40</v>
       </c>
       <c r="J212" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>5736</v>
       </c>
@@ -6797,10 +6803,10 @@
         <v>439</v>
       </c>
       <c r="J213" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>687</v>
       </c>
@@ -6823,10 +6829,10 @@
         <v>214</v>
       </c>
       <c r="J214" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>5444</v>
       </c>
@@ -6846,10 +6852,10 @@
         <v>214</v>
       </c>
       <c r="J215" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>5678</v>
       </c>
@@ -6869,10 +6875,10 @@
         <v>14</v>
       </c>
       <c r="J216" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>5707</v>
       </c>
@@ -6892,10 +6898,10 @@
         <v>25</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>5689</v>
       </c>
@@ -6915,10 +6921,10 @@
         <v>25</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>6217</v>
       </c>
@@ -6938,10 +6944,10 @@
         <v>68</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>5688</v>
       </c>
@@ -6961,10 +6967,10 @@
         <v>214</v>
       </c>
       <c r="J220" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>6469</v>
       </c>
@@ -6984,10 +6990,10 @@
         <v>67</v>
       </c>
       <c r="J221" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2468</v>
       </c>
@@ -7007,10 +7013,10 @@
         <v>67</v>
       </c>
       <c r="J222" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>5447</v>
       </c>
@@ -7027,10 +7033,10 @@
         <v>68</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>176</v>
       </c>
@@ -7050,10 +7056,10 @@
         <v>68</v>
       </c>
       <c r="J224" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>6722</v>
       </c>
@@ -7073,10 +7079,10 @@
         <v>25</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>6146</v>
       </c>
@@ -7096,10 +7102,10 @@
         <v>201</v>
       </c>
       <c r="J226" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>5941</v>
       </c>
@@ -7119,10 +7125,10 @@
         <v>217</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>5611</v>
       </c>
@@ -7142,10 +7148,10 @@
         <v>6</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>6232</v>
       </c>
@@ -7162,13 +7168,13 @@
         <v>68</v>
       </c>
       <c r="I229" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J229" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>5757</v>
       </c>
@@ -7185,10 +7191,10 @@
         <v>68</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>6051</v>
       </c>
@@ -7205,10 +7211,10 @@
         <v>68</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>3523</v>
       </c>
@@ -7228,10 +7234,10 @@
         <v>68</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>6346</v>
       </c>
@@ -7248,10 +7254,10 @@
         <v>68</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>5642</v>
       </c>
@@ -7268,10 +7274,10 @@
         <v>68</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>5645</v>
       </c>
@@ -7288,13 +7294,13 @@
         <v>68</v>
       </c>
       <c r="I235" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>263</v>
       </c>
@@ -7317,10 +7323,10 @@
         <v>227</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>5566</v>
       </c>
@@ -7340,10 +7346,10 @@
         <v>227</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>5733</v>
       </c>
@@ -7363,10 +7369,10 @@
         <v>1</v>
       </c>
       <c r="J238" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>5816</v>
       </c>
@@ -7386,10 +7392,10 @@
         <v>144</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>5619</v>
       </c>
@@ -7406,13 +7412,13 @@
         <v>68</v>
       </c>
       <c r="I240" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J240" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>3763</v>
       </c>
@@ -7432,10 +7438,10 @@
         <v>68</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>3749</v>
       </c>
@@ -7458,10 +7464,10 @@
         <v>70</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>572</v>
       </c>
@@ -7481,10 +7487,10 @@
         <v>69</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>5421</v>
       </c>
@@ -7501,10 +7507,10 @@
         <v>403</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>184</v>
       </c>
@@ -7524,10 +7530,10 @@
         <v>403</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>5594</v>
       </c>
@@ -7547,10 +7553,10 @@
         <v>40</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>3542</v>
       </c>
@@ -7570,10 +7576,10 @@
         <v>70</v>
       </c>
       <c r="J247" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>3357</v>
       </c>
@@ -7593,10 +7599,10 @@
         <v>71</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>4586</v>
       </c>
@@ -7619,10 +7625,10 @@
         <v>72</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>4586</v>
       </c>
@@ -7639,16 +7645,16 @@
         <v>411</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H250" s="7">
         <v>59</v>
       </c>
       <c r="J250" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>5275</v>
       </c>
@@ -7671,10 +7677,10 @@
         <v>72</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>5275</v>
       </c>
@@ -7691,16 +7697,16 @@
         <v>411</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H252" s="7">
         <v>59</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>4868</v>
       </c>
@@ -7720,10 +7726,10 @@
         <v>72</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>4868</v>
       </c>
@@ -7737,16 +7743,16 @@
         <v>411</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H254" s="7">
         <v>59</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>183</v>
       </c>
@@ -7763,13 +7769,13 @@
         <v>420</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>322</v>
       </c>
@@ -7789,10 +7795,10 @@
         <v>421</v>
       </c>
       <c r="J256" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>1</v>
       </c>
@@ -7812,10 +7818,10 @@
         <v>428</v>
       </c>
       <c r="J257" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>5546</v>
       </c>
@@ -7832,10 +7838,10 @@
         <v>428</v>
       </c>
       <c r="J258" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>5857</v>
       </c>
@@ -7852,10 +7858,10 @@
         <v>428</v>
       </c>
       <c r="J259" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>5547</v>
       </c>
@@ -7869,13 +7875,13 @@
         <v>427</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J260" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>6376</v>
       </c>
@@ -7889,13 +7895,13 @@
         <v>431</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J261" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>6233</v>
       </c>
@@ -7909,13 +7915,13 @@
         <v>432</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>5492</v>
       </c>
@@ -7929,13 +7935,13 @@
         <v>433</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1302</v>
       </c>
@@ -7952,13 +7958,13 @@
         <v>435</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>6</v>
       </c>
@@ -7978,10 +7984,10 @@
         <v>439</v>
       </c>
       <c r="J265" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>5494</v>
       </c>
@@ -7998,10 +8004,10 @@
         <v>439</v>
       </c>
       <c r="J266" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>870</v>
       </c>
@@ -8015,10 +8021,10 @@
         <v>442</v>
       </c>
       <c r="K267" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>5263</v>
       </c>
@@ -8035,10 +8041,10 @@
         <v>443</v>
       </c>
       <c r="J268" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>1113</v>
       </c>
@@ -8055,10 +8061,10 @@
         <v>443</v>
       </c>
       <c r="J269" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>938</v>
       </c>
@@ -8072,10 +8078,10 @@
         <v>449</v>
       </c>
       <c r="K270" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>61</v>
       </c>
@@ -8086,10 +8092,10 @@
         <v>451</v>
       </c>
       <c r="K271" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>6499</v>
       </c>
@@ -8100,10 +8106,10 @@
         <v>452</v>
       </c>
       <c r="K272" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>5425</v>
       </c>
@@ -8114,10 +8120,10 @@
         <v>453</v>
       </c>
       <c r="K273" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>602</v>
       </c>
@@ -8131,10 +8137,10 @@
         <v>456</v>
       </c>
       <c r="K274" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>1639</v>
       </c>
@@ -8145,10 +8151,10 @@
         <v>458</v>
       </c>
       <c r="K275" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>601</v>
       </c>
@@ -8162,10 +8168,10 @@
         <v>461</v>
       </c>
       <c r="K276" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>6463</v>
       </c>
@@ -8176,10 +8182,10 @@
         <v>463</v>
       </c>
       <c r="K277" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>136</v>
       </c>
@@ -8190,10 +8196,10 @@
         <v>465</v>
       </c>
       <c r="K278" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>1222</v>
       </c>
@@ -8204,10 +8210,10 @@
         <v>467</v>
       </c>
       <c r="K279" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>5428</v>
       </c>
@@ -8218,10 +8224,10 @@
         <v>468</v>
       </c>
       <c r="K280" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>937</v>
       </c>
@@ -8235,10 +8241,10 @@
         <v>471</v>
       </c>
       <c r="K281" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>812</v>
       </c>
@@ -8249,10 +8255,10 @@
         <v>473</v>
       </c>
       <c r="K282" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>6815</v>
       </c>
@@ -8263,11 +8269,10 @@
         <v>474</v>
       </c>
       <c r="K283" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:K283" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8281,16 +8286,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
